--- a/data/trans_orig/P6511-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C906825D-196C-403C-BD07-9F7F6B120394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABCC79F5-6104-4B28-A585-9D43B79A3794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F4D9380B-AFCB-41C9-BFD9-00C150262244}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{397475AB-5F2B-49CA-9C96-D97C08CD1FEB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>48,48%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>20,7%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,25 @@
     <t>13,45%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>13,15%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +161,28 @@
     <t>17,37%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,109 +194,106 @@
     <t>57,37%</t>
   </si>
   <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>65,57%</t>
   </si>
   <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
+    <t>11,21%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -308,82 +302,82 @@
     <t>73,08%</t>
   </si>
   <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>12,19%</t>
@@ -392,130 +386,130 @@
     <t>9,15%</t>
   </si>
   <si>
-    <t>16,2%</t>
+    <t>16,27%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>6,14%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>13,25%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5661448D-CCDB-4868-82F1-D28C616BF765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426BD7E1-9A18-42CE-B83D-E59CE533F0AF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1189,16 +1183,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>66</v>
@@ -1207,13 +1201,13 @@
         <v>65228</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -1222,13 +1216,13 @@
         <v>9281</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -1237,13 +1231,13 @@
         <v>74509</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1258,13 +1252,13 @@
         <v>375520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -1273,13 +1267,13 @@
         <v>152469</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
@@ -1288,18 +1282,18 @@
         <v>527989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1311,13 +1305,13 @@
         <v>645705</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>453</v>
@@ -1326,13 +1320,13 @@
         <v>474364</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>1069</v>
@@ -1341,13 +1335,13 @@
         <v>1120070</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1362,13 +1356,13 @@
         <v>163905</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -1377,13 +1371,13 @@
         <v>49738</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -1392,13 +1386,13 @@
         <v>213643</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1413,13 +1407,13 @@
         <v>136495</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -1428,13 +1422,13 @@
         <v>23786</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>158</v>
@@ -1443,19 +1437,19 @@
         <v>160281</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>170</v>
@@ -1464,13 +1458,13 @@
         <v>179465</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -1479,13 +1473,13 @@
         <v>34766</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>204</v>
@@ -1494,13 +1488,13 @@
         <v>214230</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,13 +1509,13 @@
         <v>1125570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>557</v>
@@ -1530,13 +1524,13 @@
         <v>582654</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1635</v>
@@ -1545,18 +1539,18 @@
         <v>1708224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1568,13 +1562,13 @@
         <v>295531</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -1583,13 +1577,13 @@
         <v>230213</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>503</v>
@@ -1598,13 +1592,13 @@
         <v>525745</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,13 +1613,13 @@
         <v>45520</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -1634,13 +1628,13 @@
         <v>23674</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -1649,13 +1643,13 @@
         <v>69194</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,13 +1664,13 @@
         <v>14042</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -1685,13 +1679,13 @@
         <v>19897</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -1700,19 +1694,19 @@
         <v>33939</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>47</v>
@@ -1721,13 +1715,13 @@
         <v>49277</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -1736,13 +1730,13 @@
         <v>16392</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -1751,13 +1745,13 @@
         <v>65669</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,13 +1766,13 @@
         <v>404371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>278</v>
@@ -1787,13 +1781,13 @@
         <v>290176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
         <v>666</v>
@@ -1802,13 +1796,13 @@
         <v>694547</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,16 +1816,16 @@
         <v>1073</v>
       </c>
       <c r="D19" s="7">
-        <v>1123289</v>
+        <v>1123290</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>796</v>
@@ -1840,13 +1834,13 @@
         <v>831880</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1869</v>
@@ -1855,13 +1849,13 @@
         <v>1955169</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1870,13 @@
         <v>287154</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -1891,13 +1885,13 @@
         <v>85162</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>354</v>
@@ -1906,13 +1900,13 @@
         <v>372316</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1921,13 @@
         <v>201047</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -1942,13 +1936,13 @@
         <v>47820</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>240</v>
@@ -1957,19 +1951,19 @@
         <v>248867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>283</v>
@@ -1978,13 +1972,13 @@
         <v>293970</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -1993,13 +1987,13 @@
         <v>60438</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -2008,13 +2002,13 @@
         <v>354408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,16 +2020,16 @@
         <v>1824</v>
       </c>
       <c r="D23" s="7">
-        <v>1905460</v>
+        <v>1905461</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>981</v>
@@ -2044,13 +2038,13 @@
         <v>1025300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>2805</v>
@@ -2059,18 +2053,18 @@
         <v>2930760</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6511-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABCC79F5-6104-4B28-A585-9D43B79A3794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D80BE33-E742-4352-B165-6353118D46A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{397475AB-5F2B-49CA-9C96-D97C08CD1FEB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A51AA4C6-62AC-403A-81EC-1579C282EE00}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Población según el uso de equipo de protección individual durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,08%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>48,48%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,196 +104,202 @@
     <t>20,7%</t>
   </si>
   <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>4,11%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>18,33%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -302,118 +308,118 @@
     <t>73,08%</t>
   </si>
   <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
   </si>
   <si>
     <t>81,14%</t>
@@ -422,94 +428,94 @@
     <t>78,6%</t>
   </si>
   <si>
-    <t>83,34%</t>
+    <t>83,44%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>6,14%</t>
+    <t>6,13%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426BD7E1-9A18-42CE-B83D-E59CE533F0AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD891A-7305-4D12-A735-9DEB33A865D0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1183,16 +1189,16 @@
         <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>66</v>
@@ -1201,13 +1207,13 @@
         <v>65228</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -1216,13 +1222,13 @@
         <v>9281</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -1231,13 +1237,13 @@
         <v>74509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1252,13 +1258,13 @@
         <v>375520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>146</v>
@@ -1267,13 +1273,13 @@
         <v>152469</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>504</v>
@@ -1282,18 +1288,18 @@
         <v>527989</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1305,13 +1311,13 @@
         <v>645705</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>453</v>
@@ -1320,13 +1326,13 @@
         <v>474364</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>1069</v>
@@ -1335,13 +1341,13 @@
         <v>1120070</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1356,13 +1362,13 @@
         <v>163905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -1371,13 +1377,13 @@
         <v>49738</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -1386,13 +1392,13 @@
         <v>213643</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,13 +1413,13 @@
         <v>136495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -1422,13 +1428,13 @@
         <v>23786</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>158</v>
@@ -1437,19 +1443,19 @@
         <v>160281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>170</v>
@@ -1458,13 +1464,13 @@
         <v>179465</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -1473,13 +1479,13 @@
         <v>34766</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>204</v>
@@ -1488,13 +1494,13 @@
         <v>214230</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,13 +1515,13 @@
         <v>1125570</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>557</v>
@@ -1524,13 +1530,13 @@
         <v>582654</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
         <v>1635</v>
@@ -1539,18 +1545,18 @@
         <v>1708224</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1562,13 +1568,13 @@
         <v>295531</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -1577,13 +1583,13 @@
         <v>230213</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>503</v>
@@ -1592,13 +1598,13 @@
         <v>525745</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,13 +1619,13 @@
         <v>45520</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>22</v>
@@ -1628,13 +1634,13 @@
         <v>23674</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>67</v>
@@ -1643,13 +1649,13 @@
         <v>69194</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,13 +1670,13 @@
         <v>14042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -1679,13 +1685,13 @@
         <v>19897</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -1694,19 +1700,19 @@
         <v>33939</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>47</v>
@@ -1715,13 +1721,13 @@
         <v>49277</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -1730,13 +1736,13 @@
         <v>16392</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -1745,13 +1751,13 @@
         <v>65669</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1772,13 @@
         <v>404371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>278</v>
@@ -1781,13 +1787,13 @@
         <v>290176</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
         <v>666</v>
@@ -1796,13 +1802,13 @@
         <v>694547</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,16 +1822,16 @@
         <v>1073</v>
       </c>
       <c r="D19" s="7">
-        <v>1123290</v>
+        <v>1123289</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>796</v>
@@ -1834,13 +1840,13 @@
         <v>831880</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>1869</v>
@@ -1849,13 +1855,13 @@
         <v>1955169</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1876,13 @@
         <v>287154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -1885,13 +1891,13 @@
         <v>85162</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>354</v>
@@ -1900,13 +1906,13 @@
         <v>372316</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1927,13 @@
         <v>201047</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -1936,13 +1942,13 @@
         <v>47820</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>240</v>
@@ -1951,19 +1957,19 @@
         <v>248867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>283</v>
@@ -1972,13 +1978,13 @@
         <v>293970</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -1987,13 +1993,13 @@
         <v>60438</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -2002,13 +2008,13 @@
         <v>354408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,16 +2026,16 @@
         <v>1824</v>
       </c>
       <c r="D23" s="7">
-        <v>1905461</v>
+        <v>1905460</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
         <v>981</v>
@@ -2038,13 +2044,13 @@
         <v>1025300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
         <v>2805</v>
@@ -2053,18 +2059,18 @@
         <v>2930760</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6511-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D80BE33-E742-4352-B165-6353118D46A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{132DF1AE-034F-43D8-9FFA-3BAFBFA32D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A51AA4C6-62AC-403A-81EC-1579C282EE00}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6E5CA6D-8339-4EEE-914E-9B357D68974C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>48,48%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>58,59%</t>
   </si>
   <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>20,7%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,10 +134,10 @@
     <t>13,45%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>2,71%</t>
@@ -146,16 +146,16 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>7,04%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>17,37%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,109 +197,109 @@
     <t>57,37%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
   </si>
   <si>
     <t>81,41%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>65,57%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -308,25 +308,25 @@
     <t>73,08%</t>
   </si>
   <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
   </si>
   <si>
     <t>75,7%</t>
   </si>
   <si>
-    <t>72,43%</t>
+    <t>72,1%</t>
   </si>
   <si>
     <t>78,75%</t>
@@ -335,187 +335,187 @@
     <t>11,26%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>8,16%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
   </si>
   <si>
     <t>9,96%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>4,89%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
   </si>
   <si>
     <t>81,14%</t>
   </si>
   <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>66,71%</t>
   </si>
   <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>13,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD891A-7305-4D12-A735-9DEB33A865D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A915E9CB-ECF2-4BCC-89A9-0BCF3A4A86CF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,10 +1945,10 @@
         <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>240</v>
@@ -1957,13 +1957,13 @@
         <v>248867</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1978,13 @@
         <v>293970</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -1993,13 +1993,13 @@
         <v>60438</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -2008,10 +2008,10 @@
         <v>354408</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>159</v>

--- a/data/trans_orig/P6511-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6511-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{132DF1AE-034F-43D8-9FFA-3BAFBFA32D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1569C6A9-484D-4F2E-8558-B8572C220231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A6E5CA6D-8339-4EEE-914E-9B357D68974C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5692E192-8A68-481E-BF87-66E79F5BF3E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -930,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A915E9CB-ECF2-4BCC-89A9-0BCF3A4A86CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEBC472-CBD7-4926-9001-3425D5995B29}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1580,7 +1580,7 @@
         <v>221</v>
       </c>
       <c r="I14" s="7">
-        <v>230213</v>
+        <v>230214</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1784,7 +1784,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
